--- a/L1/data/bracketology/espn_bracketology_2026.xlsx
+++ b/L1/data/bracketology/espn_bracketology_2026.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryanbrowder/Documents/Projects/marchMadness/L1/data/bracketology/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3996F54-8D7C-E444-A3F7-1D89D626E24A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8E07772-2727-2042-AE29-018CA183D422}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="500" yWindow="2320" windowWidth="18760" windowHeight="17180" xr2:uid="{F87E21A2-B3CC-9145-B55E-990F91045160}"/>
+    <workbookView xWindow="14260" yWindow="900" windowWidth="14640" windowHeight="17180" xr2:uid="{F87E21A2-B3CC-9145-B55E-990F91045160}"/>
   </bookViews>
   <sheets>
     <sheet name="espn_bracketology_2026" sheetId="1" r:id="rId1"/>
@@ -4098,7 +4098,7 @@
   <dimension ref="A1:D65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4139,10 +4139,10 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>1064</v>
       </c>
       <c r="D3">
-        <v>125</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -4167,10 +4167,10 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>522</v>
       </c>
       <c r="D5">
-        <v>353</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -4181,10 +4181,10 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>858</v>
+        <v>6</v>
       </c>
       <c r="D6">
-        <v>296</v>
+        <v>353</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -4195,10 +4195,10 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="D7">
-        <v>211</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -4209,10 +4209,10 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="D8">
-        <v>142</v>
+        <v>196</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -4223,10 +4223,10 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="D9">
-        <v>17</v>
+        <v>177</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -4237,10 +4237,10 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>61</v>
+        <v>897</v>
       </c>
       <c r="D10">
-        <v>129</v>
+        <v>312</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -4265,10 +4265,10 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>799</v>
+        <v>548</v>
       </c>
       <c r="D12">
-        <v>274</v>
+        <v>187</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -4279,10 +4279,10 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>15</v>
+        <v>826</v>
       </c>
       <c r="D13">
-        <v>23</v>
+        <v>284</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -4293,10 +4293,10 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="D14">
-        <v>337</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -4335,10 +4335,10 @@
         <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>432</v>
+        <v>372</v>
       </c>
       <c r="D17">
-        <v>143</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -4377,10 +4377,10 @@
         <v>3</v>
       </c>
       <c r="C20" t="s">
-        <v>523</v>
+        <v>8</v>
       </c>
       <c r="D20">
-        <v>180</v>
+        <v>317</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -4391,10 +4391,10 @@
         <v>4</v>
       </c>
       <c r="C21" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D21">
-        <v>4</v>
+        <v>356</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -4405,10 +4405,10 @@
         <v>5</v>
       </c>
       <c r="C22" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="D22">
-        <v>159</v>
+        <v>308</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -4419,10 +4419,10 @@
         <v>6</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="D23">
-        <v>308</v>
+        <v>142</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -4433,10 +4433,10 @@
         <v>7</v>
       </c>
       <c r="C24" t="s">
-        <v>585</v>
+        <v>12</v>
       </c>
       <c r="D24">
-        <v>196</v>
+        <v>374</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -4447,10 +4447,10 @@
         <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>65</v>
+        <v>764</v>
       </c>
       <c r="D25">
-        <v>355</v>
+        <v>265</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -4461,10 +4461,10 @@
         <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>768</v>
+        <v>60</v>
       </c>
       <c r="D26">
-        <v>266</v>
+        <v>260</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -4475,10 +4475,10 @@
         <v>10</v>
       </c>
       <c r="C27" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="D27">
-        <v>331</v>
+        <v>104</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -4489,10 +4489,10 @@
         <v>11</v>
       </c>
       <c r="C28" t="s">
-        <v>519</v>
+        <v>799</v>
       </c>
       <c r="D28">
-        <v>178</v>
+        <v>274</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -4503,10 +4503,10 @@
         <v>12</v>
       </c>
       <c r="C29" t="s">
-        <v>826</v>
+        <v>31</v>
       </c>
       <c r="D29">
-        <v>284</v>
+        <v>380</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -4517,7 +4517,7 @@
         <v>13</v>
       </c>
       <c r="C30" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D30">
         <v>36</v>
@@ -4531,10 +4531,10 @@
         <v>14</v>
       </c>
       <c r="C31" t="s">
-        <v>269</v>
+        <v>934</v>
       </c>
       <c r="D31">
-        <v>79</v>
+        <v>326</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -4545,10 +4545,10 @@
         <v>15</v>
       </c>
       <c r="C32" t="s">
-        <v>358</v>
+        <v>269</v>
       </c>
       <c r="D32">
-        <v>114</v>
+        <v>79</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -4559,10 +4559,10 @@
         <v>16</v>
       </c>
       <c r="C33" t="s">
-        <v>570</v>
+        <v>945</v>
       </c>
       <c r="D33">
-        <v>193</v>
+        <v>332</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -4573,10 +4573,10 @@
         <v>1</v>
       </c>
       <c r="C34" t="s">
-        <v>1064</v>
+        <v>56</v>
       </c>
       <c r="D34">
-        <v>62</v>
+        <v>119</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -4587,10 +4587,10 @@
         <v>2</v>
       </c>
       <c r="C35" t="s">
-        <v>56</v>
+        <v>7</v>
       </c>
       <c r="D35">
-        <v>119</v>
+        <v>125</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -4601,10 +4601,10 @@
         <v>3</v>
       </c>
       <c r="C36" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="D36">
-        <v>199</v>
+        <v>91</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
@@ -4615,10 +4615,10 @@
         <v>4</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="D37">
-        <v>317</v>
+        <v>199</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -4629,10 +4629,10 @@
         <v>5</v>
       </c>
       <c r="C38" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="D38">
-        <v>356</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -4643,10 +4643,10 @@
         <v>6</v>
       </c>
       <c r="C39" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="D39">
-        <v>19</v>
+        <v>211</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
@@ -4671,10 +4671,10 @@
         <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="D41">
-        <v>132</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
@@ -4685,10 +4685,10 @@
         <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>899</v>
+        <v>61</v>
       </c>
       <c r="D42">
-        <v>313</v>
+        <v>129</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
@@ -4699,10 +4699,10 @@
         <v>10</v>
       </c>
       <c r="C43" t="s">
-        <v>62</v>
+        <v>900</v>
       </c>
       <c r="D43">
-        <v>177</v>
+        <v>313</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
@@ -4713,10 +4713,10 @@
         <v>11</v>
       </c>
       <c r="C44" t="s">
-        <v>897</v>
+        <v>669</v>
       </c>
       <c r="D44">
-        <v>312</v>
+        <v>229</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
@@ -4741,10 +4741,10 @@
         <v>13</v>
       </c>
       <c r="C46" t="s">
-        <v>360</v>
+        <v>868</v>
       </c>
       <c r="D46">
-        <v>115</v>
+        <v>299</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
@@ -4755,10 +4755,10 @@
         <v>14</v>
       </c>
       <c r="C47" t="s">
-        <v>635</v>
+        <v>705</v>
       </c>
       <c r="D47">
-        <v>215</v>
+        <v>243</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
@@ -4769,10 +4769,10 @@
         <v>15</v>
       </c>
       <c r="C48" t="s">
-        <v>513</v>
+        <v>926</v>
       </c>
       <c r="D48">
-        <v>176</v>
+        <v>321</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
@@ -4783,10 +4783,10 @@
         <v>16</v>
       </c>
       <c r="C49" t="s">
-        <v>893</v>
+        <v>1052</v>
       </c>
       <c r="D49">
-        <v>310</v>
+        <v>377</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
@@ -4825,10 +4825,10 @@
         <v>3</v>
       </c>
       <c r="C52" t="s">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="D52">
-        <v>91</v>
+        <v>108</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
@@ -4839,10 +4839,10 @@
         <v>4</v>
       </c>
       <c r="C53" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D53">
-        <v>108</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
@@ -4853,10 +4853,10 @@
         <v>5</v>
       </c>
       <c r="C54" t="s">
-        <v>59</v>
+        <v>857</v>
       </c>
       <c r="D54">
-        <v>13</v>
+        <v>296</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
@@ -4867,10 +4867,10 @@
         <v>6</v>
       </c>
       <c r="C55" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="D55">
-        <v>55</v>
+        <v>19</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
@@ -4881,10 +4881,10 @@
         <v>7</v>
       </c>
       <c r="C56" t="s">
-        <v>764</v>
+        <v>65</v>
       </c>
       <c r="D56">
-        <v>265</v>
+        <v>355</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
@@ -4895,10 +4895,10 @@
         <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D57">
-        <v>374</v>
+        <v>132</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
@@ -4909,10 +4909,10 @@
         <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>60</v>
+        <v>768</v>
       </c>
       <c r="D58">
-        <v>260</v>
+        <v>266</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
@@ -4923,10 +4923,10 @@
         <v>10</v>
       </c>
       <c r="C59" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="D59">
-        <v>104</v>
+        <v>17</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
@@ -4937,10 +4937,10 @@
         <v>11</v>
       </c>
       <c r="C60" t="s">
-        <v>787</v>
+        <v>519</v>
       </c>
       <c r="D60">
-        <v>271</v>
+        <v>178</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
@@ -4951,10 +4951,10 @@
         <v>12</v>
       </c>
       <c r="C61" t="s">
-        <v>868</v>
+        <v>15</v>
       </c>
       <c r="D61">
-        <v>299</v>
+        <v>23</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
@@ -4965,10 +4965,10 @@
         <v>13</v>
       </c>
       <c r="C62" t="s">
-        <v>705</v>
+        <v>16</v>
       </c>
       <c r="D62">
-        <v>243</v>
+        <v>337</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
@@ -4979,10 +4979,10 @@
         <v>14</v>
       </c>
       <c r="C63" t="s">
-        <v>1046</v>
+        <v>635</v>
       </c>
       <c r="D63">
-        <v>373</v>
+        <v>215</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
@@ -4993,10 +4993,10 @@
         <v>15</v>
       </c>
       <c r="C64" t="s">
-        <v>1052</v>
+        <v>513</v>
       </c>
       <c r="D64">
-        <v>377</v>
+        <v>176</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
@@ -5007,10 +5007,10 @@
         <v>16</v>
       </c>
       <c r="C65" t="s">
-        <v>95</v>
+        <v>432</v>
       </c>
       <c r="D65">
-        <v>10</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -5023,7 +5023,7 @@
   <dimension ref="A1:H1211"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D65"/>
+      <selection activeCell="C2" sqref="C2:D65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5077,11 +5077,11 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>1064</v>
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D65" si="0">VLOOKUP(C3,$G$2:$H$1211,2,FALSE)</f>
-        <v>125</v>
+        <v>62</v>
       </c>
       <c r="G3" t="s">
         <v>72</v>
@@ -5119,11 +5119,11 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>522</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>353</v>
+        <v>180</v>
       </c>
       <c r="G5" t="s">
         <v>74</v>
@@ -5140,11 +5140,11 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>858</v>
+        <v>6</v>
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>296</v>
+        <v>353</v>
       </c>
       <c r="G6" t="s">
         <v>75</v>
@@ -5161,11 +5161,11 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>211</v>
+        <v>159</v>
       </c>
       <c r="G7" t="s">
         <v>76</v>
@@ -5182,11 +5182,11 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>142</v>
+        <v>196</v>
       </c>
       <c r="G8" t="s">
         <v>64</v>
@@ -5203,11 +5203,11 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>177</v>
       </c>
       <c r="G9" t="s">
         <v>77</v>
@@ -5224,11 +5224,11 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>61</v>
+        <v>897</v>
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
-        <v>129</v>
+        <v>312</v>
       </c>
       <c r="G10" t="s">
         <v>23</v>
@@ -5266,11 +5266,11 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>799</v>
+        <v>548</v>
       </c>
       <c r="D12">
         <f t="shared" si="0"/>
-        <v>274</v>
+        <v>187</v>
       </c>
       <c r="G12" t="s">
         <v>79</v>
@@ -5287,11 +5287,11 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>15</v>
+        <v>826</v>
       </c>
       <c r="D13">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>284</v>
       </c>
       <c r="G13" t="s">
         <v>80</v>
@@ -5308,11 +5308,11 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="D14">
         <f t="shared" si="0"/>
-        <v>337</v>
+        <v>116</v>
       </c>
       <c r="G14" t="s">
         <v>81</v>
@@ -5371,11 +5371,11 @@
         <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>432</v>
+        <v>372</v>
       </c>
       <c r="D17">
         <f t="shared" si="0"/>
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="G17" t="s">
         <v>84</v>
@@ -5434,11 +5434,11 @@
         <v>3</v>
       </c>
       <c r="C20" t="s">
-        <v>523</v>
+        <v>8</v>
       </c>
       <c r="D20">
         <f t="shared" si="0"/>
-        <v>180</v>
+        <v>317</v>
       </c>
       <c r="G20" t="s">
         <v>87</v>
@@ -5455,11 +5455,11 @@
         <v>4</v>
       </c>
       <c r="C21" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D21">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>356</v>
       </c>
       <c r="G21" t="s">
         <v>88</v>
@@ -5476,11 +5476,11 @@
         <v>5</v>
       </c>
       <c r="C22" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="D22">
         <f t="shared" si="0"/>
-        <v>159</v>
+        <v>308</v>
       </c>
       <c r="G22" t="s">
         <v>89</v>
@@ -5497,11 +5497,11 @@
         <v>6</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="D23">
         <f t="shared" si="0"/>
-        <v>308</v>
+        <v>142</v>
       </c>
       <c r="G23" t="s">
         <v>90</v>
@@ -5518,11 +5518,11 @@
         <v>7</v>
       </c>
       <c r="C24" t="s">
-        <v>585</v>
+        <v>12</v>
       </c>
       <c r="D24">
         <f t="shared" si="0"/>
-        <v>196</v>
+        <v>374</v>
       </c>
       <c r="G24" t="s">
         <v>91</v>
@@ -5539,11 +5539,11 @@
         <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>65</v>
+        <v>764</v>
       </c>
       <c r="D25">
         <f t="shared" si="0"/>
-        <v>355</v>
+        <v>265</v>
       </c>
       <c r="G25" t="s">
         <v>92</v>
@@ -5560,11 +5560,11 @@
         <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>768</v>
+        <v>60</v>
       </c>
       <c r="D26">
         <f t="shared" si="0"/>
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="G26" t="s">
         <v>93</v>
@@ -5581,11 +5581,11 @@
         <v>10</v>
       </c>
       <c r="C27" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="D27">
         <f t="shared" si="0"/>
-        <v>331</v>
+        <v>104</v>
       </c>
       <c r="G27" t="s">
         <v>94</v>
@@ -5602,11 +5602,11 @@
         <v>11</v>
       </c>
       <c r="C28" t="s">
-        <v>519</v>
+        <v>799</v>
       </c>
       <c r="D28">
         <f t="shared" si="0"/>
-        <v>178</v>
+        <v>274</v>
       </c>
       <c r="G28" t="s">
         <v>95</v>
@@ -5623,11 +5623,11 @@
         <v>12</v>
       </c>
       <c r="C29" t="s">
-        <v>826</v>
+        <v>31</v>
       </c>
       <c r="D29">
         <f t="shared" si="0"/>
-        <v>284</v>
+        <v>380</v>
       </c>
       <c r="G29" t="s">
         <v>96</v>
@@ -5644,7 +5644,7 @@
         <v>13</v>
       </c>
       <c r="C30" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D30">
         <f t="shared" si="0"/>
@@ -5665,11 +5665,11 @@
         <v>14</v>
       </c>
       <c r="C31" t="s">
-        <v>269</v>
+        <v>934</v>
       </c>
       <c r="D31">
         <f t="shared" si="0"/>
-        <v>79</v>
+        <v>326</v>
       </c>
       <c r="G31" t="s">
         <v>98</v>
@@ -5686,11 +5686,11 @@
         <v>15</v>
       </c>
       <c r="C32" t="s">
-        <v>358</v>
+        <v>269</v>
       </c>
       <c r="D32">
         <f t="shared" si="0"/>
-        <v>114</v>
+        <v>79</v>
       </c>
       <c r="G32" t="s">
         <v>99</v>
@@ -5707,11 +5707,11 @@
         <v>16</v>
       </c>
       <c r="C33" t="s">
-        <v>570</v>
+        <v>945</v>
       </c>
       <c r="D33">
         <f t="shared" si="0"/>
-        <v>193</v>
+        <v>332</v>
       </c>
       <c r="G33" t="s">
         <v>54</v>
@@ -5728,11 +5728,11 @@
         <v>1</v>
       </c>
       <c r="C34" t="s">
-        <v>1064</v>
+        <v>56</v>
       </c>
       <c r="D34">
         <f t="shared" si="0"/>
-        <v>62</v>
+        <v>119</v>
       </c>
       <c r="G34" t="s">
         <v>100</v>
@@ -5749,11 +5749,11 @@
         <v>2</v>
       </c>
       <c r="C35" t="s">
-        <v>56</v>
+        <v>7</v>
       </c>
       <c r="D35">
         <f t="shared" si="0"/>
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="G35" t="s">
         <v>101</v>
@@ -5770,11 +5770,11 @@
         <v>3</v>
       </c>
       <c r="C36" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="D36">
         <f t="shared" si="0"/>
-        <v>199</v>
+        <v>91</v>
       </c>
       <c r="G36" t="s">
         <v>102</v>
@@ -5791,11 +5791,11 @@
         <v>4</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="D37">
         <f t="shared" si="0"/>
-        <v>317</v>
+        <v>199</v>
       </c>
       <c r="G37" t="s">
         <v>103</v>
@@ -5812,11 +5812,11 @@
         <v>5</v>
       </c>
       <c r="C38" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="D38">
         <f t="shared" si="0"/>
-        <v>356</v>
+        <v>13</v>
       </c>
       <c r="G38" t="s">
         <v>104</v>
@@ -5833,11 +5833,11 @@
         <v>6</v>
       </c>
       <c r="C39" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="D39">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>211</v>
       </c>
       <c r="G39" t="s">
         <v>59</v>
@@ -5875,11 +5875,11 @@
         <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="D41">
         <f t="shared" si="0"/>
-        <v>132</v>
+        <v>55</v>
       </c>
       <c r="G41" t="s">
         <v>106</v>
@@ -5896,11 +5896,11 @@
         <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>899</v>
+        <v>61</v>
       </c>
       <c r="D42">
         <f t="shared" si="0"/>
-        <v>313</v>
+        <v>129</v>
       </c>
       <c r="G42" t="s">
         <v>107</v>
@@ -5917,11 +5917,11 @@
         <v>10</v>
       </c>
       <c r="C43" t="s">
-        <v>62</v>
+        <v>900</v>
       </c>
       <c r="D43">
         <f t="shared" si="0"/>
-        <v>177</v>
+        <v>313</v>
       </c>
       <c r="G43" t="s">
         <v>108</v>
@@ -5938,11 +5938,11 @@
         <v>11</v>
       </c>
       <c r="C44" t="s">
-        <v>897</v>
+        <v>669</v>
       </c>
       <c r="D44">
         <f t="shared" si="0"/>
-        <v>312</v>
+        <v>229</v>
       </c>
       <c r="G44" t="s">
         <v>109</v>
@@ -5980,11 +5980,11 @@
         <v>13</v>
       </c>
       <c r="C46" t="s">
-        <v>360</v>
+        <v>868</v>
       </c>
       <c r="D46">
         <f t="shared" si="0"/>
-        <v>115</v>
+        <v>299</v>
       </c>
       <c r="G46" t="s">
         <v>111</v>
@@ -6001,11 +6001,11 @@
         <v>14</v>
       </c>
       <c r="C47" t="s">
-        <v>635</v>
+        <v>705</v>
       </c>
       <c r="D47">
         <f t="shared" si="0"/>
-        <v>215</v>
+        <v>243</v>
       </c>
       <c r="G47" t="s">
         <v>17</v>
@@ -6022,11 +6022,11 @@
         <v>15</v>
       </c>
       <c r="C48" t="s">
-        <v>513</v>
+        <v>926</v>
       </c>
       <c r="D48">
         <f t="shared" si="0"/>
-        <v>176</v>
+        <v>321</v>
       </c>
       <c r="G48" t="s">
         <v>112</v>
@@ -6043,11 +6043,11 @@
         <v>16</v>
       </c>
       <c r="C49" t="s">
-        <v>893</v>
+        <v>1052</v>
       </c>
       <c r="D49">
         <f t="shared" si="0"/>
-        <v>310</v>
+        <v>377</v>
       </c>
       <c r="G49" t="s">
         <v>113</v>
@@ -6106,11 +6106,11 @@
         <v>3</v>
       </c>
       <c r="C52" t="s">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="D52">
         <f t="shared" si="0"/>
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="G52" t="s">
         <v>115</v>
@@ -6127,11 +6127,11 @@
         <v>4</v>
       </c>
       <c r="C53" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D53">
         <f t="shared" si="0"/>
-        <v>108</v>
+        <v>4</v>
       </c>
       <c r="G53" t="s">
         <v>116</v>
@@ -6148,11 +6148,11 @@
         <v>5</v>
       </c>
       <c r="C54" t="s">
-        <v>59</v>
+        <v>857</v>
       </c>
       <c r="D54">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>296</v>
       </c>
       <c r="G54" t="s">
         <v>39</v>
@@ -6169,11 +6169,11 @@
         <v>6</v>
       </c>
       <c r="C55" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="D55">
         <f t="shared" si="0"/>
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="G55" t="s">
         <v>117</v>
@@ -6190,11 +6190,11 @@
         <v>7</v>
       </c>
       <c r="C56" t="s">
-        <v>764</v>
+        <v>65</v>
       </c>
       <c r="D56">
         <f t="shared" si="0"/>
-        <v>265</v>
+        <v>355</v>
       </c>
       <c r="G56" t="s">
         <v>118</v>
@@ -6211,11 +6211,11 @@
         <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D57">
         <f t="shared" si="0"/>
-        <v>374</v>
+        <v>132</v>
       </c>
       <c r="G57" t="s">
         <v>119</v>
@@ -6232,11 +6232,11 @@
         <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>60</v>
+        <v>768</v>
       </c>
       <c r="D58">
         <f t="shared" si="0"/>
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="G58" t="s">
         <v>120</v>
@@ -6253,11 +6253,11 @@
         <v>10</v>
       </c>
       <c r="C59" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="D59">
         <f t="shared" si="0"/>
-        <v>104</v>
+        <v>17</v>
       </c>
       <c r="G59" t="s">
         <v>121</v>
@@ -6274,11 +6274,11 @@
         <v>11</v>
       </c>
       <c r="C60" t="s">
-        <v>787</v>
+        <v>519</v>
       </c>
       <c r="D60">
         <f t="shared" si="0"/>
-        <v>271</v>
+        <v>178</v>
       </c>
       <c r="G60" t="s">
         <v>122</v>
@@ -6295,11 +6295,11 @@
         <v>12</v>
       </c>
       <c r="C61" t="s">
-        <v>868</v>
+        <v>15</v>
       </c>
       <c r="D61">
         <f t="shared" si="0"/>
-        <v>299</v>
+        <v>23</v>
       </c>
       <c r="G61" t="s">
         <v>13</v>
@@ -6316,11 +6316,11 @@
         <v>13</v>
       </c>
       <c r="C62" t="s">
-        <v>705</v>
+        <v>16</v>
       </c>
       <c r="D62">
         <f t="shared" si="0"/>
-        <v>243</v>
+        <v>337</v>
       </c>
       <c r="G62" t="s">
         <v>1065</v>
@@ -6337,11 +6337,11 @@
         <v>14</v>
       </c>
       <c r="C63" t="s">
-        <v>1046</v>
+        <v>635</v>
       </c>
       <c r="D63">
         <f t="shared" si="0"/>
-        <v>373</v>
+        <v>215</v>
       </c>
       <c r="G63" t="s">
         <v>123</v>
@@ -6358,11 +6358,11 @@
         <v>15</v>
       </c>
       <c r="C64" t="s">
-        <v>1052</v>
+        <v>513</v>
       </c>
       <c r="D64">
         <f t="shared" si="0"/>
-        <v>377</v>
+        <v>176</v>
       </c>
       <c r="G64" t="s">
         <v>124</v>
@@ -6379,11 +6379,11 @@
         <v>16</v>
       </c>
       <c r="C65" t="s">
-        <v>95</v>
+        <v>432</v>
       </c>
       <c r="D65">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>143</v>
       </c>
       <c r="G65" t="s">
         <v>125</v>

--- a/L1/data/bracketology/espn_bracketology_2026.xlsx
+++ b/L1/data/bracketology/espn_bracketology_2026.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryanbrowder/Documents/Projects/marchMadness/L1/data/bracketology/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8E07772-2727-2042-AE29-018CA183D422}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F47DA282-F384-2045-B483-37516AE08CC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14260" yWindow="900" windowWidth="14640" windowHeight="17180" xr2:uid="{F87E21A2-B3CC-9145-B55E-990F91045160}"/>
+    <workbookView xWindow="16180" yWindow="900" windowWidth="12720" windowHeight="17180" xr2:uid="{F87E21A2-B3CC-9145-B55E-990F91045160}"/>
   </bookViews>
   <sheets>
     <sheet name="espn_bracketology_2026" sheetId="1" r:id="rId1"/>
@@ -4098,7 +4098,7 @@
   <dimension ref="A1:D65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4139,10 +4139,10 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>1064</v>
+        <v>55</v>
       </c>
       <c r="D3">
-        <v>62</v>
+        <v>248</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -4167,10 +4167,10 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>522</v>
+        <v>23</v>
       </c>
       <c r="D5">
-        <v>180</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -4181,10 +4181,10 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>857</v>
       </c>
       <c r="D6">
-        <v>353</v>
+        <v>296</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -4209,10 +4209,10 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>986</v>
       </c>
       <c r="D8">
-        <v>196</v>
+        <v>347</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -4223,10 +4223,10 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>62</v>
+        <v>10</v>
       </c>
       <c r="D9">
-        <v>177</v>
+        <v>132</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -4237,10 +4237,10 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>897</v>
+        <v>11</v>
       </c>
       <c r="D10">
-        <v>312</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -4279,10 +4279,10 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>826</v>
+        <v>50</v>
       </c>
       <c r="D13">
-        <v>284</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -4293,10 +4293,10 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>66</v>
+        <v>634</v>
       </c>
       <c r="D14">
-        <v>116</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -4321,10 +4321,10 @@
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>589</v>
+        <v>990</v>
       </c>
       <c r="D16">
-        <v>198</v>
+        <v>348</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -4335,10 +4335,10 @@
         <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>372</v>
+        <v>95</v>
       </c>
       <c r="D17">
-        <v>121</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -4377,10 +4377,10 @@
         <v>3</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="D20">
-        <v>317</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -4405,10 +4405,10 @@
         <v>5</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="D22">
-        <v>308</v>
+        <v>353</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -4419,10 +4419,10 @@
         <v>6</v>
       </c>
       <c r="C23" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D23">
-        <v>142</v>
+        <v>211</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -4433,10 +4433,10 @@
         <v>7</v>
       </c>
       <c r="C24" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="D24">
-        <v>374</v>
+        <v>355</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -4447,10 +4447,10 @@
         <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>764</v>
+        <v>60</v>
       </c>
       <c r="D25">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -4461,10 +4461,10 @@
         <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>60</v>
+        <v>899</v>
       </c>
       <c r="D26">
-        <v>260</v>
+        <v>313</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -4475,10 +4475,10 @@
         <v>10</v>
       </c>
       <c r="C27" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="D27">
-        <v>104</v>
+        <v>331</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -4489,10 +4489,10 @@
         <v>11</v>
       </c>
       <c r="C28" t="s">
-        <v>799</v>
+        <v>878</v>
       </c>
       <c r="D28">
-        <v>274</v>
+        <v>304</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -4503,10 +4503,10 @@
         <v>12</v>
       </c>
       <c r="C29" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="D29">
-        <v>380</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -4517,10 +4517,10 @@
         <v>13</v>
       </c>
       <c r="C30" t="s">
-        <v>156</v>
+        <v>868</v>
       </c>
       <c r="D30">
-        <v>36</v>
+        <v>299</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -4531,10 +4531,10 @@
         <v>14</v>
       </c>
       <c r="C31" t="s">
-        <v>934</v>
+        <v>269</v>
       </c>
       <c r="D31">
-        <v>326</v>
+        <v>79</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -4545,10 +4545,10 @@
         <v>15</v>
       </c>
       <c r="C32" t="s">
-        <v>269</v>
+        <v>1052</v>
       </c>
       <c r="D32">
-        <v>79</v>
+        <v>377</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -4559,10 +4559,10 @@
         <v>16</v>
       </c>
       <c r="C33" t="s">
-        <v>945</v>
+        <v>830</v>
       </c>
       <c r="D33">
-        <v>332</v>
+        <v>286</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -4573,10 +4573,10 @@
         <v>1</v>
       </c>
       <c r="C34" t="s">
-        <v>56</v>
+        <v>1064</v>
       </c>
       <c r="D34">
-        <v>119</v>
+        <v>62</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -4587,10 +4587,10 @@
         <v>2</v>
       </c>
       <c r="C35" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="D35">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -4601,10 +4601,10 @@
         <v>3</v>
       </c>
       <c r="C36" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="D36">
-        <v>91</v>
+        <v>199</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
@@ -4615,10 +4615,10 @@
         <v>4</v>
       </c>
       <c r="C37" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="D37">
-        <v>199</v>
+        <v>317</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -4643,10 +4643,10 @@
         <v>6</v>
       </c>
       <c r="C39" t="s">
-        <v>57</v>
+        <v>764</v>
       </c>
       <c r="D39">
-        <v>211</v>
+        <v>265</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
@@ -4657,10 +4657,10 @@
         <v>7</v>
       </c>
       <c r="C40" t="s">
-        <v>986</v>
+        <v>12</v>
       </c>
       <c r="D40">
-        <v>347</v>
+        <v>374</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
@@ -4671,10 +4671,10 @@
         <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="D41">
-        <v>55</v>
+        <v>142</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
@@ -4685,10 +4685,10 @@
         <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>61</v>
+        <v>28</v>
       </c>
       <c r="D42">
-        <v>129</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
@@ -4699,10 +4699,10 @@
         <v>10</v>
       </c>
       <c r="C43" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="D43">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
@@ -4713,10 +4713,10 @@
         <v>11</v>
       </c>
       <c r="C44" t="s">
-        <v>669</v>
+        <v>519</v>
       </c>
       <c r="D44">
-        <v>229</v>
+        <v>178</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
@@ -4727,10 +4727,10 @@
         <v>12</v>
       </c>
       <c r="C45" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="D45">
-        <v>150</v>
+        <v>380</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
@@ -4741,10 +4741,10 @@
         <v>13</v>
       </c>
       <c r="C46" t="s">
-        <v>868</v>
+        <v>16</v>
       </c>
       <c r="D46">
-        <v>299</v>
+        <v>337</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
@@ -4755,10 +4755,10 @@
         <v>14</v>
       </c>
       <c r="C47" t="s">
-        <v>705</v>
+        <v>589</v>
       </c>
       <c r="D47">
-        <v>243</v>
+        <v>198</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
@@ -4769,10 +4769,10 @@
         <v>15</v>
       </c>
       <c r="C48" t="s">
-        <v>926</v>
+        <v>705</v>
       </c>
       <c r="D48">
-        <v>321</v>
+        <v>243</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
@@ -4783,10 +4783,10 @@
         <v>16</v>
       </c>
       <c r="C49" t="s">
-        <v>1052</v>
+        <v>945</v>
       </c>
       <c r="D49">
-        <v>377</v>
+        <v>332</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
@@ -4811,10 +4811,10 @@
         <v>2</v>
       </c>
       <c r="C51" t="s">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="D51">
-        <v>248</v>
+        <v>125</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
@@ -4839,10 +4839,10 @@
         <v>4</v>
       </c>
       <c r="C53" t="s">
-        <v>23</v>
+        <v>522</v>
       </c>
       <c r="D53">
-        <v>4</v>
+        <v>180</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
@@ -4853,10 +4853,10 @@
         <v>5</v>
       </c>
       <c r="C54" t="s">
-        <v>857</v>
+        <v>25</v>
       </c>
       <c r="D54">
-        <v>296</v>
+        <v>308</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
@@ -4881,10 +4881,10 @@
         <v>7</v>
       </c>
       <c r="C56" t="s">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="D56">
-        <v>355</v>
+        <v>196</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
@@ -4895,10 +4895,10 @@
         <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="D57">
-        <v>132</v>
+        <v>177</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
@@ -4937,10 +4937,10 @@
         <v>11</v>
       </c>
       <c r="C60" t="s">
-        <v>519</v>
+        <v>61</v>
       </c>
       <c r="D60">
-        <v>178</v>
+        <v>129</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
@@ -4951,10 +4951,10 @@
         <v>12</v>
       </c>
       <c r="C61" t="s">
-        <v>15</v>
+        <v>826</v>
       </c>
       <c r="D61">
-        <v>23</v>
+        <v>284</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
@@ -4965,10 +4965,10 @@
         <v>13</v>
       </c>
       <c r="C62" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="D62">
-        <v>337</v>
+        <v>116</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
@@ -4979,10 +4979,10 @@
         <v>14</v>
       </c>
       <c r="C63" t="s">
-        <v>635</v>
+        <v>934</v>
       </c>
       <c r="D63">
-        <v>215</v>
+        <v>326</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
@@ -5077,11 +5077,11 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>1064</v>
+        <v>55</v>
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D65" si="0">VLOOKUP(C3,$G$2:$H$1211,2,FALSE)</f>
-        <v>62</v>
+        <v>248</v>
       </c>
       <c r="G3" t="s">
         <v>72</v>
@@ -5119,11 +5119,11 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>522</v>
+        <v>23</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>180</v>
+        <v>4</v>
       </c>
       <c r="G5" t="s">
         <v>74</v>
@@ -5140,11 +5140,11 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>857</v>
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>353</v>
+        <v>296</v>
       </c>
       <c r="G6" t="s">
         <v>75</v>
@@ -5182,11 +5182,11 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>986</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>196</v>
+        <v>347</v>
       </c>
       <c r="G8" t="s">
         <v>64</v>
@@ -5203,11 +5203,11 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>62</v>
+        <v>10</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>177</v>
+        <v>132</v>
       </c>
       <c r="G9" t="s">
         <v>77</v>
@@ -5224,11 +5224,11 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>897</v>
+        <v>11</v>
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
-        <v>312</v>
+        <v>104</v>
       </c>
       <c r="G10" t="s">
         <v>23</v>
@@ -5287,11 +5287,11 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>826</v>
+        <v>50</v>
       </c>
       <c r="D13">
         <f t="shared" si="0"/>
-        <v>284</v>
+        <v>150</v>
       </c>
       <c r="G13" t="s">
         <v>80</v>
@@ -5308,11 +5308,11 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>66</v>
+        <v>634</v>
       </c>
       <c r="D14">
         <f t="shared" si="0"/>
-        <v>116</v>
+        <v>215</v>
       </c>
       <c r="G14" t="s">
         <v>81</v>
@@ -5350,11 +5350,11 @@
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>589</v>
+        <v>990</v>
       </c>
       <c r="D16">
         <f t="shared" si="0"/>
-        <v>198</v>
+        <v>348</v>
       </c>
       <c r="G16" t="s">
         <v>83</v>
@@ -5371,11 +5371,11 @@
         <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>372</v>
+        <v>95</v>
       </c>
       <c r="D17">
         <f t="shared" si="0"/>
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="G17" t="s">
         <v>84</v>
@@ -5434,11 +5434,11 @@
         <v>3</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="D20">
         <f t="shared" si="0"/>
-        <v>317</v>
+        <v>91</v>
       </c>
       <c r="G20" t="s">
         <v>87</v>
@@ -5476,11 +5476,11 @@
         <v>5</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="D22">
         <f t="shared" si="0"/>
-        <v>308</v>
+        <v>353</v>
       </c>
       <c r="G22" t="s">
         <v>89</v>
@@ -5497,11 +5497,11 @@
         <v>6</v>
       </c>
       <c r="C23" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D23">
         <f t="shared" si="0"/>
-        <v>142</v>
+        <v>211</v>
       </c>
       <c r="G23" t="s">
         <v>90</v>
@@ -5518,11 +5518,11 @@
         <v>7</v>
       </c>
       <c r="C24" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="D24">
         <f t="shared" si="0"/>
-        <v>374</v>
+        <v>355</v>
       </c>
       <c r="G24" t="s">
         <v>91</v>
@@ -5539,11 +5539,11 @@
         <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>764</v>
+        <v>60</v>
       </c>
       <c r="D25">
         <f t="shared" si="0"/>
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="G25" t="s">
         <v>92</v>
@@ -5560,11 +5560,11 @@
         <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>60</v>
+        <v>899</v>
       </c>
       <c r="D26">
         <f t="shared" si="0"/>
-        <v>260</v>
+        <v>313</v>
       </c>
       <c r="G26" t="s">
         <v>93</v>
@@ -5581,11 +5581,11 @@
         <v>10</v>
       </c>
       <c r="C27" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="D27">
         <f t="shared" si="0"/>
-        <v>104</v>
+        <v>331</v>
       </c>
       <c r="G27" t="s">
         <v>94</v>
@@ -5602,11 +5602,11 @@
         <v>11</v>
       </c>
       <c r="C28" t="s">
-        <v>799</v>
+        <v>878</v>
       </c>
       <c r="D28">
         <f t="shared" si="0"/>
-        <v>274</v>
+        <v>304</v>
       </c>
       <c r="G28" t="s">
         <v>95</v>
@@ -5623,11 +5623,11 @@
         <v>12</v>
       </c>
       <c r="C29" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="D29">
         <f t="shared" si="0"/>
-        <v>380</v>
+        <v>23</v>
       </c>
       <c r="G29" t="s">
         <v>96</v>
@@ -5644,11 +5644,11 @@
         <v>13</v>
       </c>
       <c r="C30" t="s">
-        <v>156</v>
+        <v>868</v>
       </c>
       <c r="D30">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>299</v>
       </c>
       <c r="G30" t="s">
         <v>97</v>
@@ -5665,11 +5665,11 @@
         <v>14</v>
       </c>
       <c r="C31" t="s">
-        <v>934</v>
+        <v>269</v>
       </c>
       <c r="D31">
         <f t="shared" si="0"/>
-        <v>326</v>
+        <v>79</v>
       </c>
       <c r="G31" t="s">
         <v>98</v>
@@ -5686,11 +5686,11 @@
         <v>15</v>
       </c>
       <c r="C32" t="s">
-        <v>269</v>
+        <v>1052</v>
       </c>
       <c r="D32">
         <f t="shared" si="0"/>
-        <v>79</v>
+        <v>377</v>
       </c>
       <c r="G32" t="s">
         <v>99</v>
@@ -5707,11 +5707,11 @@
         <v>16</v>
       </c>
       <c r="C33" t="s">
-        <v>945</v>
+        <v>830</v>
       </c>
       <c r="D33">
         <f t="shared" si="0"/>
-        <v>332</v>
+        <v>286</v>
       </c>
       <c r="G33" t="s">
         <v>54</v>
@@ -5728,11 +5728,11 @@
         <v>1</v>
       </c>
       <c r="C34" t="s">
-        <v>56</v>
+        <v>1064</v>
       </c>
       <c r="D34">
         <f t="shared" si="0"/>
-        <v>119</v>
+        <v>62</v>
       </c>
       <c r="G34" t="s">
         <v>100</v>
@@ -5749,11 +5749,11 @@
         <v>2</v>
       </c>
       <c r="C35" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="D35">
         <f t="shared" si="0"/>
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="G35" t="s">
         <v>101</v>
@@ -5770,11 +5770,11 @@
         <v>3</v>
       </c>
       <c r="C36" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="D36">
         <f t="shared" si="0"/>
-        <v>91</v>
+        <v>199</v>
       </c>
       <c r="G36" t="s">
         <v>102</v>
@@ -5791,11 +5791,11 @@
         <v>4</v>
       </c>
       <c r="C37" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="D37">
         <f t="shared" si="0"/>
-        <v>199</v>
+        <v>317</v>
       </c>
       <c r="G37" t="s">
         <v>103</v>
@@ -5833,11 +5833,11 @@
         <v>6</v>
       </c>
       <c r="C39" t="s">
-        <v>57</v>
+        <v>764</v>
       </c>
       <c r="D39">
         <f t="shared" si="0"/>
-        <v>211</v>
+        <v>265</v>
       </c>
       <c r="G39" t="s">
         <v>59</v>
@@ -5854,11 +5854,11 @@
         <v>7</v>
       </c>
       <c r="C40" t="s">
-        <v>986</v>
+        <v>12</v>
       </c>
       <c r="D40">
         <f t="shared" si="0"/>
-        <v>347</v>
+        <v>374</v>
       </c>
       <c r="G40" t="s">
         <v>105</v>
@@ -5875,11 +5875,11 @@
         <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="D41">
         <f t="shared" si="0"/>
-        <v>55</v>
+        <v>142</v>
       </c>
       <c r="G41" t="s">
         <v>106</v>
@@ -5896,11 +5896,11 @@
         <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>61</v>
+        <v>28</v>
       </c>
       <c r="D42">
         <f t="shared" si="0"/>
-        <v>129</v>
+        <v>55</v>
       </c>
       <c r="G42" t="s">
         <v>107</v>
@@ -5917,11 +5917,11 @@
         <v>10</v>
       </c>
       <c r="C43" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="D43">
         <f t="shared" si="0"/>
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G43" t="s">
         <v>108</v>
@@ -5938,11 +5938,11 @@
         <v>11</v>
       </c>
       <c r="C44" t="s">
-        <v>669</v>
+        <v>519</v>
       </c>
       <c r="D44">
         <f t="shared" si="0"/>
-        <v>229</v>
+        <v>178</v>
       </c>
       <c r="G44" t="s">
         <v>109</v>
@@ -5959,11 +5959,11 @@
         <v>12</v>
       </c>
       <c r="C45" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="D45">
         <f t="shared" si="0"/>
-        <v>150</v>
+        <v>380</v>
       </c>
       <c r="G45" t="s">
         <v>110</v>
@@ -5980,11 +5980,11 @@
         <v>13</v>
       </c>
       <c r="C46" t="s">
-        <v>868</v>
+        <v>16</v>
       </c>
       <c r="D46">
         <f t="shared" si="0"/>
-        <v>299</v>
+        <v>337</v>
       </c>
       <c r="G46" t="s">
         <v>111</v>
@@ -6001,11 +6001,11 @@
         <v>14</v>
       </c>
       <c r="C47" t="s">
-        <v>705</v>
+        <v>589</v>
       </c>
       <c r="D47">
         <f t="shared" si="0"/>
-        <v>243</v>
+        <v>198</v>
       </c>
       <c r="G47" t="s">
         <v>17</v>
@@ -6022,11 +6022,11 @@
         <v>15</v>
       </c>
       <c r="C48" t="s">
-        <v>926</v>
+        <v>705</v>
       </c>
       <c r="D48">
         <f t="shared" si="0"/>
-        <v>321</v>
+        <v>243</v>
       </c>
       <c r="G48" t="s">
         <v>112</v>
@@ -6043,11 +6043,11 @@
         <v>16</v>
       </c>
       <c r="C49" t="s">
-        <v>1052</v>
+        <v>945</v>
       </c>
       <c r="D49">
         <f t="shared" si="0"/>
-        <v>377</v>
+        <v>332</v>
       </c>
       <c r="G49" t="s">
         <v>113</v>
@@ -6085,11 +6085,11 @@
         <v>2</v>
       </c>
       <c r="C51" t="s">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="D51">
         <f t="shared" si="0"/>
-        <v>248</v>
+        <v>125</v>
       </c>
       <c r="G51" t="s">
         <v>43</v>
@@ -6127,11 +6127,11 @@
         <v>4</v>
       </c>
       <c r="C53" t="s">
-        <v>23</v>
+        <v>522</v>
       </c>
       <c r="D53">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>180</v>
       </c>
       <c r="G53" t="s">
         <v>116</v>
@@ -6148,11 +6148,11 @@
         <v>5</v>
       </c>
       <c r="C54" t="s">
-        <v>857</v>
+        <v>25</v>
       </c>
       <c r="D54">
         <f t="shared" si="0"/>
-        <v>296</v>
+        <v>308</v>
       </c>
       <c r="G54" t="s">
         <v>39</v>
@@ -6190,11 +6190,11 @@
         <v>7</v>
       </c>
       <c r="C56" t="s">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="D56">
         <f t="shared" si="0"/>
-        <v>355</v>
+        <v>196</v>
       </c>
       <c r="G56" t="s">
         <v>118</v>
@@ -6211,11 +6211,11 @@
         <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="D57">
         <f t="shared" si="0"/>
-        <v>132</v>
+        <v>177</v>
       </c>
       <c r="G57" t="s">
         <v>119</v>
@@ -6274,11 +6274,11 @@
         <v>11</v>
       </c>
       <c r="C60" t="s">
-        <v>519</v>
+        <v>61</v>
       </c>
       <c r="D60">
         <f t="shared" si="0"/>
-        <v>178</v>
+        <v>129</v>
       </c>
       <c r="G60" t="s">
         <v>122</v>
@@ -6295,11 +6295,11 @@
         <v>12</v>
       </c>
       <c r="C61" t="s">
-        <v>15</v>
+        <v>826</v>
       </c>
       <c r="D61">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>284</v>
       </c>
       <c r="G61" t="s">
         <v>13</v>
@@ -6316,11 +6316,11 @@
         <v>13</v>
       </c>
       <c r="C62" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="D62">
         <f t="shared" si="0"/>
-        <v>337</v>
+        <v>116</v>
       </c>
       <c r="G62" t="s">
         <v>1065</v>
@@ -6337,11 +6337,11 @@
         <v>14</v>
       </c>
       <c r="C63" t="s">
-        <v>635</v>
+        <v>934</v>
       </c>
       <c r="D63">
         <f t="shared" si="0"/>
-        <v>215</v>
+        <v>326</v>
       </c>
       <c r="G63" t="s">
         <v>123</v>
